--- a/doc/属性表.xlsx
+++ b/doc/属性表.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>属性</t>
   </si>
@@ -116,6 +103,12 @@
     <t>%最终伤害</t>
   </si>
   <si>
+    <t>%移动速度加成</t>
+  </si>
+  <si>
+    <t>不显示，加成在移动速度上面</t>
+  </si>
+  <si>
     <t>%远程伤害加成</t>
   </si>
   <si>
@@ -158,7 +151,7 @@
     <t>击杀回蓝</t>
   </si>
   <si>
-    <t>回复增强</t>
+    <t>%恢复增强</t>
   </si>
   <si>
     <t>%全元素伤害</t>
@@ -200,12 +193,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,6 +215,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -229,142 +358,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -381,114 +374,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,67 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,17 +609,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,15 +625,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +640,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,22 +692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,148 +711,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -882,52 +875,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1124,7 +1117,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1133,7 +1126,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1407,7 +1400,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1538,137 +1531,142 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:1">
-      <c r="A18" s="2"/>
+    <row r="18" ht="16.5" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" ht="16.5" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/doc/属性表.xlsx
+++ b/doc/属性表.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>属性</t>
   </si>
@@ -28,6 +41,12 @@
     <t>攻击力</t>
   </si>
   <si>
+    <t>基础攻击力</t>
+  </si>
+  <si>
+    <t>白字基础</t>
+  </si>
+  <si>
     <t>攻击速度</t>
   </si>
   <si>
@@ -46,7 +65,10 @@
     <t>减少怪物碰撞伤害</t>
   </si>
   <si>
-    <t>生命值</t>
+    <t>最大生命值</t>
+  </si>
+  <si>
+    <t>血量</t>
   </si>
   <si>
     <t>生命恢复</t>
@@ -55,6 +77,9 @@
     <t>每秒恢复</t>
   </si>
   <si>
+    <t>最大蓝量</t>
+  </si>
+  <si>
     <t>蓝量</t>
   </si>
   <si>
@@ -100,9 +125,15 @@
     <t>%伤害加成</t>
   </si>
   <si>
+    <t>造成伤害的百分比加成</t>
+  </si>
+  <si>
     <t>%最终伤害</t>
   </si>
   <si>
+    <t>最后加成百分比</t>
+  </si>
+  <si>
     <t>%移动速度加成</t>
   </si>
   <si>
@@ -130,6 +161,9 @@
     <t>%火元素伤害</t>
   </si>
   <si>
+    <t>伤害百分比加成</t>
+  </si>
+  <si>
     <t>%冰元素伤害</t>
   </si>
   <si>
@@ -154,13 +188,19 @@
     <t>%恢复增强</t>
   </si>
   <si>
+    <t>所有恢复效果增强，百分比加成</t>
+  </si>
+  <si>
     <t>%全元素伤害</t>
   </si>
   <si>
+    <t>元素伤害百分比加成</t>
+  </si>
+  <si>
     <t>%全元素穿透</t>
   </si>
   <si>
-    <t>乘算</t>
+    <t>乘算，百分比穿透元素抗性</t>
   </si>
   <si>
     <t>%火元素穿透</t>
@@ -178,9 +218,18 @@
     <t>%全元素抗性</t>
   </si>
   <si>
+    <t>乘算，百分比减少受到元素伤害</t>
+  </si>
+  <si>
+    <t>怪物所携带属性</t>
+  </si>
+  <si>
     <t>%火元素抗性</t>
   </si>
   <si>
+    <t>百分比减少受到的元素伤害</t>
+  </si>
+  <si>
     <t>%冰元素抗性</t>
   </si>
   <si>
@@ -188,17 +237,47 @@
   </si>
   <si>
     <t>%风元素抗性</t>
+  </si>
+  <si>
+    <t>固定伤害</t>
+  </si>
+  <si>
+    <t>固定值，额外造成固定数值伤害</t>
+  </si>
+  <si>
+    <t>固定伤害减免</t>
+  </si>
+  <si>
+    <t>对应减少固定伤害</t>
+  </si>
+  <si>
+    <t>当固伤减免&gt;固定伤害，则继续减少所受伤害</t>
+  </si>
+  <si>
+    <t>%攻击力加成</t>
+  </si>
+  <si>
+    <t>攻击力百分比加成</t>
+  </si>
+  <si>
+    <t>绿字</t>
+  </si>
+  <si>
+    <t>%生命值加成</t>
+  </si>
+  <si>
+    <t>百分比加成生命值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -215,8 +294,102 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,16 +403,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,107 +432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,67 +453,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,115 +621,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,12 +688,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -624,7 +716,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,24 +732,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,17 +766,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,148 +790,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,52 +954,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1117,7 +1196,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1126,7 +1205,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1397,10 +1476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1408,6 +1487,7 @@
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1421,252 +1501,374 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:1">
+    <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" ht="16.5" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" ht="17.25" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/doc/属性表.xlsx
+++ b/doc/属性表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="伤害公式" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
   <si>
     <t>属性</t>
   </si>
@@ -143,7 +144,10 @@
     <t>%远程伤害加成</t>
   </si>
   <si>
-    <t>范围半径600码以外属于远程</t>
+    <t>根据英雄定义</t>
+  </si>
+  <si>
+    <t>%近战伤害加成</t>
   </si>
   <si>
     <t>灼烧伤害%</t>
@@ -267,6 +271,88 @@
   </si>
   <si>
     <t>百分比加成生命值</t>
+  </si>
+  <si>
+    <t>%暴击抗性</t>
+  </si>
+  <si>
+    <t>%暴击伤害减免</t>
+  </si>
+  <si>
+    <t>%命中率</t>
+  </si>
+  <si>
+    <t>%技能增强</t>
+  </si>
+  <si>
+    <t>增强技能造成的伤害百分比</t>
+  </si>
+  <si>
+    <t>无元素</t>
+  </si>
+  <si>
+    <t>对具有元素抗性怪物造成伤害只有70%</t>
+  </si>
+  <si>
+    <t>%伤害减免</t>
+  </si>
+  <si>
+    <t>根据伤害方式（攻击或技能）判断是否命中（随机1-100）</t>
+  </si>
+  <si>
+    <t>命中概率=（1+攻击者额外命中率-被攻击者总闪避率）*100</t>
+  </si>
+  <si>
+    <t>其中：小怪没有闪避，只有玩家（英雄）有闪避，小怪默认命中率100%</t>
+  </si>
+  <si>
+    <t>根据伤害类型（元素或无元素）判断是否暴击（随机1-100）</t>
+  </si>
+  <si>
+    <t>暴击概率=（攻击者暴击率-被攻击者暴击抗性）</t>
+  </si>
+  <si>
+    <t>暴击后伤害修正</t>
+  </si>
+  <si>
+    <t>伤害=伤害*（攻击者暴击伤害-被攻击者暴击伤害减免）【最低1=100%】</t>
+  </si>
+  <si>
+    <t>伤害计算</t>
+  </si>
+  <si>
+    <r>
+      <t>造成伤害1=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻击者攻击力*【1+攻击力加成百分比】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*技能伤害*【1+伤害加成百分比】*（1+最终伤害百分比】*元素伤害百分比*技能增强百分比*远程或近战伤害增加百分比</t>
+    </r>
+  </si>
+  <si>
+    <t>造成伤害2=固定伤害（=攻击者固定伤害-受攻击者固定伤害减免）【造成伤害最小值1】</t>
+  </si>
+  <si>
+    <t>伤害减免</t>
+  </si>
+  <si>
+    <t>受到伤害=造成伤害*（1-元素抗性百分比（=受伤害者元素抗性-攻击者元素穿透）最小值0）*（1-伤害减免百分比）+造成伤害2【总值最小为0】</t>
   </si>
 </sst>
 </file>
@@ -279,8 +365,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -435,6 +529,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -805,150 +906,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1476,22 +1586,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1502,7 +1612,7 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1513,17 +1623,17 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -1531,7 +1641,7 @@
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1539,7 +1649,7 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1547,7 +1657,7 @@
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -1555,7 +1665,7 @@
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
@@ -1563,7 +1673,7 @@
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1574,12 +1684,12 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
@@ -1590,7 +1700,7 @@
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
@@ -1598,7 +1708,7 @@
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
@@ -1606,7 +1716,7 @@
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
@@ -1614,7 +1724,7 @@
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
@@ -1622,7 +1732,7 @@
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
@@ -1630,7 +1740,7 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
@@ -1638,7 +1748,7 @@
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
@@ -1646,229 +1756,356 @@
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:2">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" ht="16.5" spans="1:2">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" ht="16.5" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="24" ht="16.5" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="1:1">
-      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:2">
+      <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" ht="16.5" spans="1:1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" ht="17.25" spans="1:2">
-      <c r="A30" s="4" t="s">
+    <row r="30" ht="16.5" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" ht="17.25" spans="1:2">
+      <c r="A31" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" ht="14.25" spans="1:2">
+      <c r="A32" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+      <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" t="s">
         <v>67</v>
       </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
+      <c r="B43" t="s">
         <v>72</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B44" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
         <v>75</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+      <c r="C45" t="s">
         <v>78</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="219.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/doc/属性表.xlsx
+++ b/doc/属性表.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="伤害公式" sheetId="2" r:id="rId2"/>
+    <sheet name="怪物属性" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>属性</t>
   </si>
@@ -322,6 +323,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>造成伤害1=</t>
     </r>
     <r>
@@ -354,6 +362,9 @@
   <si>
     <t>受到伤害=造成伤害*（1-元素抗性百分比（=受伤害者元素抗性-攻击者元素穿透）最小值0）*（1-伤害减免百分比）+造成伤害2【总值最小为0】</t>
   </si>
+  <si>
+    <t>碰撞伤害，碰撞间隔1秒一次</t>
+  </si>
 </sst>
 </file>
 
@@ -374,18 +385,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1040,25 +1051,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1588,20 +1599,20 @@
   <sheetPr/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1612,7 +1623,7 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1623,17 +1634,17 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -1641,7 +1652,7 @@
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1649,7 +1660,7 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1657,7 +1668,7 @@
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -1665,7 +1676,7 @@
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
@@ -1673,7 +1684,7 @@
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1684,12 +1695,12 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
@@ -1700,7 +1711,7 @@
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
@@ -1708,7 +1719,7 @@
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
@@ -1716,7 +1727,7 @@
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
@@ -1724,7 +1735,7 @@
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
@@ -1732,7 +1743,7 @@
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
@@ -1740,7 +1751,7 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
@@ -1748,7 +1759,7 @@
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
@@ -1756,7 +1767,7 @@
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
@@ -1764,7 +1775,7 @@
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
@@ -1772,7 +1783,7 @@
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
@@ -1780,7 +1791,7 @@
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
@@ -1788,7 +1799,7 @@
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
@@ -1796,7 +1807,7 @@
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B25" t="s">
@@ -1804,7 +1815,7 @@
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
@@ -1812,7 +1823,7 @@
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B27" t="s">
@@ -1820,7 +1831,7 @@
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B28" t="s">
@@ -1828,17 +1839,17 @@
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:1">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B31" t="s">
@@ -1846,7 +1857,7 @@
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B32" t="s">
@@ -1854,7 +1865,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B33" t="s">
@@ -1862,7 +1873,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B34" t="s">
@@ -1870,7 +1881,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B35" t="s">
@@ -1878,7 +1889,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B36" t="s">
@@ -1886,7 +1897,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B37" t="s">
@@ -1894,7 +1905,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B38" t="s">
@@ -1905,7 +1916,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B39" t="s">
@@ -1916,7 +1927,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B40" t="s">
@@ -1927,7 +1938,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B41" t="s">
@@ -1938,7 +1949,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B42" t="s">
@@ -1949,7 +1960,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B43" t="s">
@@ -1957,7 +1968,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B44" t="s">
@@ -1971,7 +1982,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B45" t="s">
@@ -1982,7 +1993,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B46" t="s">
@@ -1990,17 +2001,17 @@
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C49" t="s">
@@ -2008,7 +2019,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B50" t="s">
@@ -2016,7 +2027,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B51" t="s">
@@ -2024,7 +2035,7 @@
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2039,7 +2050,7 @@
   <sheetPr/>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2049,7 +2060,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2064,7 +2075,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2074,7 +2085,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2084,12 +2095,12 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2099,7 +2110,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2108,6 +2119,142 @@
         <v>100</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
